--- a/ProposedChanges.xlsx
+++ b/ProposedChanges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpeters\Desktop\Git Repos\WebsiteChanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18FD5F-D699-42D0-8546-A2452ACE82D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D111EF-4D09-4627-B277-40D3AE0F9D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F16D7CE8-18EB-4E60-8A4A-62F0C4555761}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F16D7CE8-18EB-4E60-8A4A-62F0C4555761}"/>
   </bookViews>
   <sheets>
     <sheet name="Landing Page" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Reference Number</t>
   </si>
@@ -503,12 +503,57 @@
   <si>
     <t>Clicking on "OurExpertise.html", located in the same folder as this spreadsheet, opens a mockup page</t>
   </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Change "Our Expertise" to "Engineering Services"</t>
+  </si>
+  <si>
+    <t>Engineering Services is a much more impactful search term that is far more likely to be contained in a Google search than "Our Expertise"</t>
+  </si>
+  <si>
+    <t>Make "DISTek" capitalization consistent, also add "engineers"</t>
+  </si>
+  <si>
+    <t>capitalization should be consistent across the board</t>
+  </si>
+  <si>
+    <r>
+      <t>DISTek provides contract engineering and staffing solutions, specializing in mechanical, electrical, and embedded software engineering services.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Our engineers are experts in vehicle simulator design, ECU software development, and vehicle networking. DISTek engineers are respected around the world, sharing their expertise at events including SAE COMVEC, NIWeek, and the Ag Equipment Technology Conference.</t>
+    </r>
+  </si>
+  <si>
+    <t>Injects "engineering services" once more onto the homepage. This may require paring down the rest of the paragraph or otherwise integrating the new and old together to improve flow and overall word count, as well as relative formating to adjacent "Application Areas" section</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +565,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,36 +607,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -840,13 +908,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D3D9544-7A96-458D-8EDE-5D9F5D546898}" name="Table2" displayName="Table2" ref="B2:E29" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D3D9544-7A96-458D-8EDE-5D9F5D546898}" name="Table2" displayName="Table2" ref="B2:E29" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="B2:E29" xr:uid="{2D3D9544-7A96-458D-8EDE-5D9F5D546898}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{08A0CAC2-9066-47AD-B46B-79006075E7DC}" name="Page Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EC63786E-DE6B-489B-82AC-254B16EB1083}" name="Reference Number" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{29DB8691-112F-4272-BEAE-11A9AC3437A0}" name="Addition/Change" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{73279150-11BC-46D9-B79F-CC00885F60D4}" name="Motivation For Change" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{08A0CAC2-9066-47AD-B46B-79006075E7DC}" name="Page Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EC63786E-DE6B-489B-82AC-254B16EB1083}" name="Reference Number" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{29DB8691-112F-4272-BEAE-11A9AC3437A0}" name="Addition/Change" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{73279150-11BC-46D9-B79F-CC00885F60D4}" name="Motivation For Change" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1187,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6146C1-63B9-44BC-BDDC-0D45C6F281F6}">
   <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1197,7 +1265,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1252,203 +1320,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100F347E-E114-48E6-96A1-9655A099FD60}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.21875" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="61.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="4" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="102.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProposedChanges.xlsx
+++ b/ProposedChanges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpeters\Desktop\Git Repos\WebsiteChanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D111EF-4D09-4627-B277-40D3AE0F9D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F96D8F4-3448-4F04-8C88-69EA23C2F9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F16D7CE8-18EB-4E60-8A4A-62F0C4555761}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Reference Number</t>
   </si>
@@ -547,6 +547,108 @@
   </si>
   <si>
     <t>Injects "engineering services" once more onto the homepage. This may require paring down the rest of the paragraph or otherwise integrating the new and old together to improve flow and overall word count, as well as relative formating to adjacent "Application Areas" section</t>
+  </si>
+  <si>
+    <t>Application Areas - Vehicle Controls</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adding more detail here allows us to make this page more SEO keyword rich without disrupting the language or brevity of the original paragraph. We can further develop this by adding interlinks of certain key text (e.g., hardware-in-the-loop validation links to Vehicle Simulation) to other pages in the site. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This section could also be done in the form of a bullet point list to more thoroughly list our fields of application without increasing the amount of text by as much as a paragraph would necessitate</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Areas - Electrification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The biggest differentiators of equipment are digital, a trend which continues to push electronics into all vehicle systems. We help our clients meet aggressive time-to-market objectives by developing accurate, reliable, and efficient software for their new machine features. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISTek specializes in designing and validating vehicle controls for automotive, agricultural, and heavy equipment applications. Our services include automated integration testing, hardware-in-the-loop validation, and MATLAB modeling for control algorithms. We support every stage of the development lifecycle to help build smart, rugged vehicles with confidence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Electric power systems offer the potential for improved operating efficiency, finer machine control, and reduced carbon emissions. Our teams support the software needs of these systems for battery, fuel-cell, and diesel-electric hybrid vehicles. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISTek specializes in software development for embedded systems that drive innovation in electric and hybrid vehicle technologies. Our capabilities include embedded software engineering, vehicle simulation, and automated integration testing, all supported by advanced modelling and simulation practices. As an expert in electronic design automation, we provide scalable solutions from driver software to full embedded application development, helping clients achieve performance, safety, and regulatory goals in modern electrified mobility platforms.</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Areas- Autonomous Vehicles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automating commercial vehicles and off-highway equipment reduces the demand on operators and increases the productivity of these machines. Our engineers implement the algorithms to incorporate new sensors, automate new features, and add autonomy to entire vehicles. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISTek provides custom software development focused on advancing autonomy in embedded systems for off-highway and commercial vehicles. With deep experience in platform engineering and software development for embedded systems, we support vehicle simulation, electronic design automation, and integration testing to accelerate innovation. Our embedded software engineers leverage HIL, MATLAB modeling, and simulation tools to validate autonomous functions, while our use of automated test equipment and data testing automation tools ensures reliability from prototype to production.</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Areas - Precision Ag</t>
+  </si>
+  <si>
+    <t>throughout</t>
+  </si>
+  <si>
+    <t>Change "Precision Ag" to "Precision Agriculture"</t>
+  </si>
+  <si>
+    <t>Precision Agriculture is a much more impactful search term that is far more likely to be contained in a Google search than "Precision Ag"</t>
+  </si>
+  <si>
+    <r>
+      <t>Precision ag systems continue to add technology to meet the dual goals of reducing input costs and limiting negative impact to the environment. We leverage valuable insights from our long history in ag electronics for vehicle and implement applications, providing finer control and measurement for individualized crop care.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DISTek delivers custom software development services to support the growing demands of precision agriculture. Our expertise in embedded systems and platform engineering enables us to create advanced control solutions for both vehicles and implements. We apply software development for embedded systems, electronic design automation, and vehicle simulation to enhance machine performance and decision-making in the field. With capabilities in MATLAB modeling, HIL testing, and automated integration testing, our engineers ensure precision ag systems are validated using reliable automated test equipment and data testing automation tools.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -607,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,6 +728,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,13 +1427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100F347E-E114-48E6-96A1-9655A099FD60}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="61.21875" style="6" customWidth="1"/>
     <col min="5" max="5" width="39.109375" style="6" customWidth="1"/>
@@ -1404,43 +1509,103 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+    <row r="7" spans="2:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
@@ -1478,7 +1643,7 @@
   <dimension ref="B2:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
